--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdisash\Music\job_application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Music\awash_job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0211CC36-A7DE-4D8F-B00B-CA4B96BFC017}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97285C36-A3F5-429C-B9A2-44C24079C53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="25935" windowHeight="15450" xr2:uid="{81FEC376-B0A3-4594-910D-F86165143A6A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{81FEC376-B0A3-4594-910D-F86165143A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>AIB/20821/2022</t>
   </si>
@@ -38,43 +38,34 @@
     <t>ABDISA SHIBRU EREFU</t>
   </si>
   <si>
-    <t>ITSMCC</t>
-  </si>
-  <si>
-    <t>abdisash@awashbank.com</t>
-  </si>
-  <si>
     <t>full_name</t>
   </si>
   <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>employee_id</t>
   </si>
   <si>
     <t>AIB/20822/2022</t>
   </si>
   <si>
-    <t>tsegayeg@awashbank.com</t>
-  </si>
-  <si>
     <t>AIB/20822/2023</t>
   </si>
   <si>
     <t>NAHOM AMARE GEBRETSADIK</t>
   </si>
   <si>
-    <t>nahomam@awashbank.com</t>
-  </si>
-  <si>
     <t>TSEGAYE GETA MINIHAL</t>
+  </si>
+  <si>
+    <t>AIB/20823/2023</t>
+  </si>
+  <si>
+    <t>AIB/20824/2023</t>
+  </si>
+  <si>
+    <t>MOHAMMEDNUR HUSSIEN HEBO</t>
+  </si>
+  <si>
+    <t>ERMIAS AMARE TESHOME</t>
   </si>
 </sst>
 </file>
@@ -444,94 +435,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06A4030-5FAE-4466-9E2D-8167EB4894F3}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>977062008</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{CE278A7A-E0C7-48EE-BA9F-30056DE1ABBF}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{8B487591-4D85-4543-9D1B-D2B9D78497CC}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{1B6190CD-0466-489D-AB18-96D587DA8323}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>